--- a/各銀行開戶數.xlsx
+++ b/各銀行開戶數.xlsx
@@ -24,86 +24,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第一商業銀行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>國泰世華商業銀行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>王道商業銀行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>永豐商業銀行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台新國際商業銀行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>各銀行開戶數</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Bank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位：戶數</t>
+    <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>銀行</t>
+    <t>KOKO</t>
+  </si>
+  <si>
+    <t> Richart</t>
+  </si>
+  <si>
+    <t> O-bank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>總數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>iLeo</t>
+  </si>
+  <si>
+    <t>DAWHO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others(42 banks)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -113,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,26 +79,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,38 +141,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -502,110 +449,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>22031935</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9823527</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7047907</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B5" s="6">
+        <v>5011210</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3678822</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9">
-        <v>22031935</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>9823527</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9">
-        <v>7047907</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
-        <v>5011210</v>
-      </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9">
-        <v>3678822</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="B7" s="6">
         <v>20882359</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
